--- a/ZWK-PAT/PAT 2023/FASE 2/VOOLOPIGE FASE2/oct 8/editing rubriek.xlsx
+++ b/ZWK-PAT/PAT 2023/FASE 2/VOOLOPIGE FASE2/oct 8/editing rubriek.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19178" windowHeight="6683" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Taak 1_5" sheetId="1" r:id="rId1"/>
@@ -1434,7 +1434,7 @@
       <family val="5"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1456,6 +1456,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1682,7 +1688,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2002,17 +2008,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2026,32 +2029,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2080,14 +2077,65 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2104,44 +2152,23 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2158,23 +2185,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2188,28 +2218,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2626,7 +2635,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="C7" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="C7" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2740,15 +2749,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2807,15 +2816,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2874,15 +2883,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2941,15 +2950,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3008,15 +3017,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3075,7 +3084,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3142,7 +3151,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3209,7 +3218,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3276,7 +3285,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3343,7 +3352,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3410,7 +3419,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3418,7 +3427,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3477,7 +3486,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3485,7 +3494,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3544,7 +3553,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3552,7 +3561,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3611,7 +3620,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3619,7 +3628,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3678,7 +3687,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>27</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3686,7 +3695,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>27</xdr:row>
-          <xdr:rowOff>393700</xdr:rowOff>
+          <xdr:rowOff>395288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3745,7 +3754,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3753,7 +3762,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3812,7 +3821,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3820,7 +3829,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3879,7 +3888,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3887,7 +3896,7 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3946,7 +3955,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -3954,7 +3963,7 @@
           <xdr:col>4</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4013,7 +4022,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4021,7 +4030,7 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>1104900</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -4080,7 +4089,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4147,7 +4156,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4214,7 +4223,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4281,7 +4290,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4348,7 +4357,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4415,7 +4424,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4482,7 +4491,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4549,7 +4558,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4616,7 +4625,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4683,7 +4692,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4750,7 +4759,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4817,7 +4826,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4884,7 +4893,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -4951,7 +4960,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5018,7 +5027,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5085,7 +5094,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5152,7 +5161,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5219,7 +5228,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5286,7 +5295,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5353,13 +5362,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5420,13 +5429,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5487,13 +5496,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5554,13 +5563,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5621,13 +5630,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -5688,7 +5697,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5755,7 +5764,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5822,7 +5831,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5889,7 +5898,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -5956,7 +5965,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6023,7 +6032,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6090,7 +6099,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6157,7 +6166,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6224,7 +6233,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6291,7 +6300,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -6363,13 +6372,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6430,13 +6439,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6497,13 +6506,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6564,13 +6573,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6631,13 +6640,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6698,13 +6707,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6765,13 +6774,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6832,13 +6841,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6899,13 +6908,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -6966,13 +6975,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7033,13 +7042,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7100,13 +7109,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7167,13 +7176,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7234,13 +7243,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7301,13 +7310,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7368,13 +7377,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7435,13 +7444,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7502,13 +7511,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7569,13 +7578,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7636,13 +7645,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>1098550</xdr:colOff>
+          <xdr:colOff>1100138</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>304800</xdr:rowOff>
         </xdr:to>
@@ -7703,7 +7712,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7770,7 +7779,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7837,7 +7846,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7904,7 +7913,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -7971,7 +7980,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8038,7 +8047,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8105,7 +8114,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8172,7 +8181,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8239,7 +8248,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8306,7 +8315,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8373,7 +8382,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8440,7 +8449,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8507,7 +8516,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8574,7 +8583,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8641,7 +8650,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -8708,7 +8717,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -8775,13 +8784,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8844,13 +8853,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8909,13 +8918,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -8976,15 +8985,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9043,13 +9052,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9112,13 +9121,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9177,13 +9186,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -9244,15 +9253,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>88900</xdr:colOff>
+          <xdr:colOff>90488</xdr:colOff>
           <xdr:row>20</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9311,7 +9320,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9378,7 +9387,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9445,7 +9454,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9512,7 +9521,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9579,7 +9588,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>393700</xdr:colOff>
+          <xdr:colOff>395288</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
@@ -9646,7 +9655,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9713,7 +9722,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9785,15 +9794,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>584200</xdr:colOff>
+          <xdr:colOff>585788</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>261938</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9854,13 +9863,13 @@
           <xdr:col>3</xdr:col>
           <xdr:colOff>647700</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>50800</xdr:colOff>
+          <xdr:colOff>52388</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -9919,7 +9928,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -9986,15 +9995,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10053,15 +10062,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>52388</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10120,15 +10129,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>584200</xdr:colOff>
+          <xdr:colOff>585788</xdr:colOff>
           <xdr:row>6</xdr:row>
-          <xdr:rowOff>908050</xdr:rowOff>
+          <xdr:rowOff>909638</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>952500</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>222250</xdr:rowOff>
+          <xdr:rowOff>223838</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10193,7 +10202,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>869950</xdr:colOff>
+          <xdr:colOff>871538</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -10254,15 +10263,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>565150</xdr:colOff>
+          <xdr:colOff>566738</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>279400</xdr:rowOff>
+          <xdr:rowOff>280988</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10327,7 +10336,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>869950</xdr:colOff>
+          <xdr:colOff>871538</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>266700</xdr:rowOff>
         </xdr:to>
@@ -10388,7 +10397,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10455,7 +10464,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10522,7 +10531,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>736600</xdr:colOff>
+          <xdr:colOff>738188</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
@@ -10591,13 +10600,13 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>1238250</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>260350</xdr:rowOff>
+          <xdr:rowOff>261938</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10723,15 +10732,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>52388</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10790,15 +10799,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
+          <xdr:rowOff>52388</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -10859,11 +10868,11 @@
           <xdr:col>5</xdr:col>
           <xdr:colOff>552450</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>14288</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>869950</xdr:colOff>
+          <xdr:colOff>871538</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -10924,13 +10933,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -10991,13 +11000,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11058,13 +11067,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11125,13 +11134,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>203200</xdr:colOff>
+          <xdr:colOff>204788</xdr:colOff>
           <xdr:row>10</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:rowOff>33338</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>908050</xdr:colOff>
+          <xdr:colOff>909638</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -11539,13 +11548,13 @@
       <selection activeCell="A37" sqref="A37:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="19.23046875" style="1" customWidth="1"/>
-    <col min="2" max="6" width="15.765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.765625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.84375" style="36"/>
+    <col min="1" max="1" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="6" width="15.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.27734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11555,10 +11564,10 @@
       <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="121" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="149"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="106" t="s">
         <v>188</v>
       </c>
@@ -11596,7 +11605,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="130" t="s">
         <v>153</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -11614,17 +11623,17 @@
       <c r="F3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="125">
+      <c r="G3" s="124">
         <v>4</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="126">
         <f>IF(B4=TRUE,4,IF(C4=TRUE,3,IF(D4=TRUE,2,IF(E4=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I3" s="131"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="124"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="11" t="b">
         <v>1</v>
       </c>
@@ -11638,9 +11647,9 @@
         <v>0</v>
       </c>
       <c r="F4" s="11"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="132"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="123"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -11665,8 +11674,8 @@
       <c r="H5" s="9"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="156">
-      <c r="A6" s="122" t="s">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="153">
+      <c r="A6" s="132" t="s">
         <v>132</v>
       </c>
       <c r="B6" s="61" t="s">
@@ -11684,18 +11693,18 @@
       <c r="F6" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="124">
         <v>4</v>
       </c>
-      <c r="H6" s="127">
+      <c r="H6" s="126">
         <f>IF(B7=TRUE,4,IF(C7=TRUE,3,IF(D7=TRUE,2,IF(E7=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="121"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="144"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A7" s="124"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="11" t="b">
         <v>1</v>
       </c>
@@ -11709,10 +11718,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="121"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="144"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
@@ -11737,8 +11746,8 @@
       <c r="H8" s="99"/>
       <c r="I8" s="102"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="65">
-      <c r="A9" s="129" t="s">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="63.75">
+      <c r="A9" s="146" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="61" t="s">
@@ -11756,19 +11765,19 @@
       <c r="F9" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="125">
+      <c r="G9" s="124">
         <v>4</v>
       </c>
-      <c r="H9" s="127">
+      <c r="H9" s="126">
         <f>IF(B10=TRUE,4,IF(C10=TRUE,3,IF(D10=TRUE,2,IF(E10=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I9" s="131"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A10" s="130"/>
+      <c r="A10" s="147"/>
       <c r="B10" s="69" t="b">
         <v>1</v>
       </c>
@@ -11784,13 +11793,13 @@
       <c r="F10" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="G10" s="126"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="26">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="25.5">
       <c r="A11" s="5" t="s">
         <v>68</v>
       </c>
@@ -11814,7 +11823,7 @@
       <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="95.25" customHeight="1">
-      <c r="A12" s="133" t="s">
+      <c r="A12" s="130" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -11832,19 +11841,19 @@
       <c r="F12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="125">
+      <c r="G12" s="124">
         <v>4</v>
       </c>
-      <c r="H12" s="127">
+      <c r="H12" s="126">
         <f>IF(B13=TRUE,4,IF(C13=TRUE,3,IF(D13=TRUE,2,IF(E13=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I12" s="131"/>
-      <c r="J12" s="136"/>
-      <c r="K12" s="137"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="149"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="124"/>
+      <c r="A13" s="131"/>
       <c r="B13" s="69" t="b">
         <v>1</v>
       </c>
@@ -11860,11 +11869,11 @@
       <c r="F13" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="G13" s="126"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="136"/>
-      <c r="K13" s="137"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="149"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A14" s="5" t="s">
@@ -11890,7 +11899,7 @@
       <c r="I14" s="102"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="60.75" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="132" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -11908,19 +11917,19 @@
       <c r="F15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="124">
         <v>4</v>
       </c>
-      <c r="H15" s="127">
+      <c r="H15" s="126">
         <f>IF(B16=TRUE,4,IF(C16=TRUE,3,IF(D16=TRUE,2,IF(E16=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I15" s="131"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="137"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="149"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A16" s="123"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="13" t="b">
         <v>1</v>
       </c>
@@ -11936,11 +11945,11 @@
       <c r="F16" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G16" s="126"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="137"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="30.75" customHeight="1">
       <c r="A17" s="5" t="s">
@@ -11966,7 +11975,7 @@
       <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:11" s="1" customFormat="1" ht="91.5" customHeight="1">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="132" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="97" t="s">
@@ -11984,18 +11993,18 @@
       <c r="F18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="125">
+      <c r="G18" s="124">
         <v>4</v>
       </c>
-      <c r="H18" s="140">
+      <c r="H18" s="137">
         <f>IF(B19=TRUE,4,IF(C19=TRUE,3,IF(D19=TRUE,2,IF(E19=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I18" s="131"/>
+      <c r="I18" s="122"/>
       <c r="J18" s="71"/>
     </row>
     <row r="19" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A19" s="123"/>
+      <c r="A19" s="145"/>
       <c r="B19" s="13" t="b">
         <v>1</v>
       </c>
@@ -12011,9 +12020,9 @@
       <c r="F19" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G19" s="139"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="132"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:11" s="1" customFormat="1" ht="32.25" customHeight="1">
       <c r="A20" s="7" t="s">
@@ -12039,7 +12048,7 @@
       <c r="I20" s="102"/>
     </row>
     <row r="21" spans="1:11" s="4" customFormat="1" ht="82.5" customHeight="1">
-      <c r="A21" s="122" t="s">
+      <c r="A21" s="132" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -12057,19 +12066,19 @@
       <c r="F21" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G21" s="125">
+      <c r="G21" s="124">
         <v>4</v>
       </c>
-      <c r="H21" s="127">
+      <c r="H21" s="126">
         <f>IF(B22=TRUE,4,IF(C22=TRUE,3,IF(D22=TRUE,2,IF(E22=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I21" s="131"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="129"/>
     </row>
     <row r="22" spans="1:11" s="1" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A22" s="124"/>
+      <c r="A22" s="131"/>
       <c r="B22" s="13" t="b">
         <v>1</v>
       </c>
@@ -12083,14 +12092,14 @@
       <c r="F22" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G22" s="126"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
+      <c r="G22" s="125"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="129"/>
     </row>
     <row r="23" spans="1:11" s="1" customFormat="1" ht="111.75" customHeight="1">
-      <c r="A23" s="122" t="s">
+      <c r="A23" s="132" t="s">
         <v>161</v>
       </c>
       <c r="B23" s="12" t="s">
@@ -12108,17 +12117,17 @@
       <c r="F23" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G23" s="125">
+      <c r="G23" s="124">
         <v>4</v>
       </c>
-      <c r="H23" s="127">
+      <c r="H23" s="126">
         <f>IF(B24=TRUE,4,IF(C24=TRUE,3,IF(D24=TRUE,2,IF(E24=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I23" s="131"/>
+      <c r="I23" s="122"/>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="124"/>
+      <c r="A24" s="131"/>
       <c r="B24" s="13" t="b">
         <v>1</v>
       </c>
@@ -12132,12 +12141,12 @@
         <v>0</v>
       </c>
       <c r="F24" s="13"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="132"/>
+      <c r="G24" s="125"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="98.25" customHeight="1">
-      <c r="A25" s="133" t="s">
+      <c r="A25" s="130" t="s">
         <v>96</v>
       </c>
       <c r="B25" s="64" t="s">
@@ -12155,17 +12164,17 @@
       <c r="F25" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25" s="124">
         <v>4</v>
       </c>
-      <c r="H25" s="127">
+      <c r="H25" s="126">
         <f>IF(B26=TRUE,4,IF(C26=TRUE,3,IF(D26=TRUE,2,IF(E26=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I25" s="131"/>
+      <c r="I25" s="122"/>
     </row>
     <row r="26" spans="1:11" s="1" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A26" s="124"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="13" t="b">
         <v>1</v>
       </c>
@@ -12179,12 +12188,12 @@
       <c r="F26" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="126"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="132"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="123"/>
     </row>
     <row r="27" spans="1:11" ht="96" customHeight="1">
-      <c r="A27" s="122" t="s">
+      <c r="A27" s="132" t="s">
         <v>163</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -12202,17 +12211,17 @@
       <c r="F27" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G27" s="125">
+      <c r="G27" s="124">
         <v>4</v>
       </c>
-      <c r="H27" s="127">
+      <c r="H27" s="126">
         <f>IF(B28=TRUE,4,IF(C28=TRUE,3,IF(D28=TRUE,2,IF(E28=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I27" s="147"/>
+      <c r="I27" s="133"/>
     </row>
     <row r="28" spans="1:11" ht="39" customHeight="1">
-      <c r="A28" s="124"/>
+      <c r="A28" s="131"/>
       <c r="B28" s="13" t="b">
         <v>1</v>
       </c>
@@ -12226,19 +12235,19 @@
       <c r="F28" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G28" s="126"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="148"/>
+      <c r="G28" s="125"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="134"/>
     </row>
     <row r="29" spans="1:11" ht="30" customHeight="1">
-      <c r="A29" s="144" t="s">
+      <c r="A29" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="145"/>
-      <c r="C29" s="145"/>
-      <c r="D29" s="145"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="146"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="143"/>
       <c r="G29" s="10">
         <f>SUM(G3:G28)</f>
         <v>40</v>
@@ -12257,28 +12266,28 @@
       <c r="H30" s="85"/>
     </row>
     <row r="31" spans="1:11" ht="27" customHeight="1">
-      <c r="A31" s="142" t="s">
+      <c r="A31" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="142"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="142"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
     </row>
     <row r="32" spans="1:11" ht="57.75" customHeight="1">
-      <c r="A32" s="143" t="s">
+      <c r="A32" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="143"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
     </row>
     <row r="33" spans="1:8" ht="33.75" customHeight="1">
       <c r="A33" s="1" t="s">
@@ -12311,7 +12320,7 @@
       <c r="E36" s="32"/>
       <c r="F36" s="32"/>
     </row>
-    <row r="37" spans="1:8" ht="62">
+    <row r="37" spans="1:8" ht="60">
       <c r="A37" s="115" t="s">
         <v>2</v>
       </c>
@@ -12346,10 +12355,10 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="B41" s="138" t="s">
+      <c r="B41" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="138"/>
+      <c r="C41" s="135"/>
       <c r="D41" s="26"/>
       <c r="E41" s="25" t="s">
         <v>3</v>
@@ -12368,26 +12377,10 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="J9:K10"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="J15:K16"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="H18:H19"/>
@@ -12402,10 +12395,23 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="H25:H26"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="G9:G10"/>
@@ -12413,11 +12419,14 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="J9:K10"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="J15:K16"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -12441,15 +12450,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12463,15 +12472,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12485,15 +12494,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12507,15 +12516,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12529,15 +12538,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12551,7 +12560,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12573,7 +12582,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12595,7 +12604,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12617,7 +12626,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12639,7 +12648,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12661,7 +12670,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12669,7 +12678,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12683,7 +12692,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12691,7 +12700,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12705,7 +12714,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12713,7 +12722,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12727,7 +12736,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12735,7 +12744,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12749,7 +12758,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>27</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12757,7 +12766,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>27</xdr:row>
-                    <xdr:rowOff>393700</xdr:rowOff>
+                    <xdr:rowOff>395288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12771,7 +12780,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12779,7 +12788,7 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12793,7 +12802,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12801,7 +12810,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12815,7 +12824,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12823,7 +12832,7 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12837,7 +12846,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12845,7 +12854,7 @@
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12859,7 +12868,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12867,7 +12876,7 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>1104900</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -12881,7 +12890,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12903,7 +12912,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12925,7 +12934,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12947,7 +12956,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12969,7 +12978,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -12991,7 +13000,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13013,7 +13022,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13035,7 +13044,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13057,7 +13066,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13079,7 +13088,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13101,7 +13110,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13123,7 +13132,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13145,7 +13154,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13167,7 +13176,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13189,7 +13198,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13211,7 +13220,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13233,7 +13242,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13255,7 +13264,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13277,7 +13286,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13299,13 +13308,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13321,13 +13330,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13343,13 +13352,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13365,13 +13374,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13387,13 +13396,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>18</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -13409,7 +13418,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13431,7 +13440,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13453,7 +13462,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13475,7 +13484,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13497,7 +13506,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13519,7 +13528,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13541,7 +13550,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13563,7 +13572,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13585,7 +13594,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13607,7 +13616,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -13632,18 +13641,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="22.53515625" customWidth="1"/>
-    <col min="2" max="2" width="16.84375" customWidth="1"/>
-    <col min="3" max="5" width="15.765625" customWidth="1"/>
-    <col min="6" max="6" width="13.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.765625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.84375" style="84"/>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -13653,11 +13662,11 @@
       <c r="B1" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="149" t="str">
+      <c r="C1" s="121" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="D1" s="149"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="106" t="s">
         <v>193</v>
       </c>
@@ -13695,8 +13704,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="39">
-      <c r="A3" s="133" t="s">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="38.25">
+      <c r="A3" s="130" t="s">
         <v>178</v>
       </c>
       <c r="B3" s="61" t="s">
@@ -13714,7 +13723,7 @@
       <c r="F3" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="125">
+      <c r="G3" s="124">
         <v>4</v>
       </c>
       <c r="H3" s="156">
@@ -13724,7 +13733,7 @@
       <c r="I3" s="157"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A4" s="123"/>
+      <c r="A4" s="145"/>
       <c r="B4" s="13" t="b">
         <v>1</v>
       </c>
@@ -13738,7 +13747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="13"/>
-      <c r="G4" s="126"/>
+      <c r="G4" s="125"/>
       <c r="H4" s="156"/>
       <c r="I4" s="157"/>
     </row>
@@ -13766,7 +13775,7 @@
       <c r="I5" s="102"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="130" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="62" t="s">
@@ -13784,26 +13793,26 @@
       <c r="F6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="125">
+      <c r="G6" s="124">
         <v>4</v>
       </c>
       <c r="H6" s="156">
         <f>IF(B7=TRUE,4,IF(C7=TRUE,3,IF(D7=TRUE,2,IF(E7=TRUE,1,0))))</f>
         <v>4</v>
       </c>
-      <c r="I6" s="157"/>
-      <c r="J6" s="136" t="s">
+      <c r="I6" s="191"/>
+      <c r="J6" s="148" t="s">
         <v>198</v>
       </c>
-      <c r="K6" s="137"/>
+      <c r="K6" s="149"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="24" customHeight="1">
-      <c r="A7" s="123"/>
+      <c r="A7" s="145"/>
       <c r="B7" s="13" t="b">
         <v>1</v>
       </c>
       <c r="C7" s="13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13" t="b">
         <v>0</v>
@@ -13812,11 +13821,11 @@
         <v>0</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="126"/>
+      <c r="G7" s="125"/>
       <c r="H7" s="156"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="137"/>
+      <c r="I7" s="191"/>
+      <c r="J7" s="148"/>
+      <c r="K7" s="149"/>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
@@ -13842,7 +13851,7 @@
       <c r="I8" s="102"/>
     </row>
     <row r="9" spans="1:11" s="1" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A9" s="122" t="s">
+      <c r="A9" s="132" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="14" t="s">
@@ -13860,7 +13869,7 @@
       <c r="F9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="125">
+      <c r="G9" s="124">
         <v>4</v>
       </c>
       <c r="H9" s="156">
@@ -13870,7 +13879,7 @@
       <c r="I9" s="157"/>
     </row>
     <row r="10" spans="1:11" s="4" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A10" s="123"/>
+      <c r="A10" s="145"/>
       <c r="B10" s="13" t="b">
         <v>1</v>
       </c>
@@ -13884,12 +13893,12 @@
         <v>0</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="126"/>
+      <c r="G10" s="125"/>
       <c r="H10" s="156"/>
       <c r="I10" s="157"/>
     </row>
     <row r="11" spans="1:11" s="1" customFormat="1" ht="84" customHeight="1">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="159" t="s">
         <v>168</v>
       </c>
       <c r="B11" s="14" t="s">
@@ -13907,7 +13916,7 @@
       <c r="F11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="125">
+      <c r="G11" s="124">
         <v>4</v>
       </c>
       <c r="H11" s="156">
@@ -13915,10 +13924,10 @@
         <v>4</v>
       </c>
       <c r="I11" s="157"/>
-      <c r="J11" s="121"/>
+      <c r="J11" s="144"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A12" s="159"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="13" t="b">
         <v>1</v>
       </c>
@@ -13930,13 +13939,13 @@
         <v>0</v>
       </c>
       <c r="F12" s="13"/>
-      <c r="G12" s="126"/>
+      <c r="G12" s="125"/>
       <c r="H12" s="156"/>
       <c r="I12" s="157"/>
-      <c r="J12" s="121"/>
+      <c r="J12" s="144"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A13" s="160" t="s">
+      <c r="A13" s="161" t="s">
         <v>169</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -13954,21 +13963,21 @@
       <c r="F13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="125">
+      <c r="G13" s="124">
         <v>4</v>
       </c>
       <c r="H13" s="156">
         <f>IF(B14=TRUE,4,IF(C14=TRUE,3,IF(D14=TRUE,2,IF(E14=TRUE,1,0))))</f>
         <v>3</v>
       </c>
-      <c r="I13" s="190"/>
-      <c r="J13" s="136" t="s">
+      <c r="I13" s="153"/>
+      <c r="J13" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="150"/>
+      <c r="K13" s="164"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A14" s="161"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="13" t="b">
         <v>0</v>
       </c>
@@ -13982,14 +13991,14 @@
         <v>0</v>
       </c>
       <c r="F14" s="13"/>
-      <c r="G14" s="126"/>
+      <c r="G14" s="125"/>
       <c r="H14" s="156"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="150"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="164"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="96.75" customHeight="1">
-      <c r="A15" s="122" t="s">
+      <c r="A15" s="132" t="s">
         <v>170</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -14007,7 +14016,7 @@
       <c r="F15" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="125">
+      <c r="G15" s="124">
         <v>4</v>
       </c>
       <c r="H15" s="156">
@@ -14015,13 +14024,13 @@
         <v>4</v>
       </c>
       <c r="I15" s="157"/>
-      <c r="J15" s="136" t="s">
+      <c r="J15" s="148" t="s">
         <v>200</v>
       </c>
-      <c r="K15" s="137"/>
+      <c r="K15" s="149"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="27" customHeight="1">
-      <c r="A16" s="123"/>
+      <c r="A16" s="145"/>
       <c r="B16" s="13" t="b">
         <v>1</v>
       </c>
@@ -14035,14 +14044,14 @@
         <v>0</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="126"/>
+      <c r="G16" s="125"/>
       <c r="H16" s="156"/>
       <c r="I16" s="157"/>
-      <c r="J16" s="136"/>
-      <c r="K16" s="137"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="149"/>
     </row>
     <row r="17" spans="1:11" s="1" customFormat="1" ht="72" customHeight="1">
-      <c r="A17" s="133" t="s">
+      <c r="A17" s="130" t="s">
         <v>171</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -14060,7 +14069,7 @@
       <c r="F17" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="125">
+      <c r="G17" s="124">
         <v>4</v>
       </c>
       <c r="H17" s="156">
@@ -14070,7 +14079,7 @@
       <c r="I17" s="157"/>
     </row>
     <row r="18" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A18" s="124"/>
+      <c r="A18" s="131"/>
       <c r="B18" s="13" t="b">
         <v>1</v>
       </c>
@@ -14086,11 +14095,11 @@
       <c r="F18" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G18" s="126"/>
+      <c r="G18" s="125"/>
       <c r="H18" s="156"/>
       <c r="I18" s="157"/>
     </row>
-    <row r="19" spans="1:11" ht="26">
+    <row r="19" spans="1:11" ht="26.25">
       <c r="A19" s="37" t="s">
         <v>71</v>
       </c>
@@ -14113,8 +14122,8 @@
       <c r="H19" s="79"/>
       <c r="I19" s="41"/>
     </row>
-    <row r="20" spans="1:11" s="16" customFormat="1" ht="104">
-      <c r="A20" s="167" t="s">
+    <row r="20" spans="1:11" s="16" customFormat="1" ht="102">
+      <c r="A20" s="158" t="s">
         <v>64</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -14132,17 +14141,17 @@
       <c r="F20" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G20" s="125">
+      <c r="G20" s="124">
         <v>4</v>
       </c>
       <c r="H20" s="156">
         <f>IF(B21=TRUE,4,IF(C21=TRUE,3,IF(D21=TRUE,2,IF(E21=TRUE,1,0))))</f>
         <v>3</v>
       </c>
-      <c r="I20" s="153"/>
+      <c r="I20" s="167"/>
     </row>
-    <row r="21" spans="1:11" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A21" s="167"/>
+    <row r="21" spans="1:11" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A21" s="158"/>
       <c r="B21" s="46" t="b">
         <v>0</v>
       </c>
@@ -14158,12 +14167,12 @@
       <c r="F21" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="G21" s="126"/>
+      <c r="G21" s="125"/>
       <c r="H21" s="156"/>
-      <c r="I21" s="154"/>
+      <c r="I21" s="168"/>
     </row>
-    <row r="22" spans="1:11" s="16" customFormat="1" ht="52">
-      <c r="A22" s="155" t="s">
+    <row r="22" spans="1:11" s="16" customFormat="1" ht="51">
+      <c r="A22" s="163" t="s">
         <v>201</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -14181,21 +14190,21 @@
       <c r="F22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="125">
+      <c r="G22" s="124">
         <v>4</v>
       </c>
       <c r="H22" s="156">
         <f>IF(B23=TRUE,4,IF(C23=TRUE,3,IF(D23=TRUE,2,IF(E23=TRUE,1,0))))</f>
         <v>2</v>
       </c>
-      <c r="I22" s="188"/>
-      <c r="J22" s="136" t="s">
+      <c r="I22" s="169"/>
+      <c r="J22" s="148" t="s">
         <v>202</v>
       </c>
-      <c r="K22" s="151"/>
+      <c r="K22" s="165"/>
     </row>
-    <row r="23" spans="1:11" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A23" s="155"/>
+    <row r="23" spans="1:11" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A23" s="163"/>
       <c r="B23" s="46" t="b">
         <v>0</v>
       </c>
@@ -14211,11 +14220,11 @@
       <c r="F23" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="G23" s="126"/>
+      <c r="G23" s="125"/>
       <c r="H23" s="156"/>
-      <c r="I23" s="189"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="151"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="165"/>
     </row>
     <row r="24" spans="1:11" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
@@ -14240,8 +14249,8 @@
       <c r="H24" s="98"/>
       <c r="I24" s="102"/>
     </row>
-    <row r="25" spans="1:11" s="1" customFormat="1" ht="117">
-      <c r="A25" s="133" t="s">
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="114.75">
+      <c r="A25" s="130" t="s">
         <v>88</v>
       </c>
       <c r="B25" s="12" t="s">
@@ -14259,7 +14268,7 @@
       <c r="F25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="125">
+      <c r="G25" s="124">
         <v>4</v>
       </c>
       <c r="H25" s="156">
@@ -14267,10 +14276,10 @@
         <v>0</v>
       </c>
       <c r="I25" s="157"/>
-      <c r="J25" s="121"/>
+      <c r="J25" s="144"/>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A26" s="124"/>
+      <c r="A26" s="131"/>
       <c r="B26" s="13" t="b">
         <v>0</v>
       </c>
@@ -14286,20 +14295,20 @@
       <c r="F26" s="13" t="b">
         <v>0</v>
       </c>
-      <c r="G26" s="126"/>
+      <c r="G26" s="125"/>
       <c r="H26" s="156"/>
       <c r="I26" s="157"/>
-      <c r="J26" s="121"/>
+      <c r="J26" s="144"/>
     </row>
     <row r="27" spans="1:11" s="4" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="163"/>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
-      <c r="F27" s="164"/>
+      <c r="B27" s="151"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="152"/>
       <c r="G27" s="10">
         <f>SUM(G2:G26)</f>
         <v>40</v>
@@ -14316,29 +14325,29 @@
     <row r="28" spans="1:11">
       <c r="I28" s="40"/>
     </row>
-    <row r="29" spans="1:11" ht="20">
-      <c r="A29" s="142" t="s">
+    <row r="29" spans="1:11" ht="20.25">
+      <c r="A29" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="142"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
     </row>
     <row r="30" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
+      <c r="B30" s="140"/>
+      <c r="C30" s="140"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
@@ -14353,24 +14362,24 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:11" ht="30" customHeight="1">
-      <c r="A32" s="166"/>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
+      <c r="A32" s="155"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
-      <c r="A33" s="165"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="G33" s="165"/>
-      <c r="H33" s="165"/>
+      <c r="A33" s="154"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="154"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="33"/>
@@ -14383,7 +14392,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" ht="35">
+    <row r="35" spans="1:9" ht="34.5">
       <c r="A35" s="24" t="s">
         <v>2</v>
       </c>
@@ -14452,10 +14461,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1"/>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="138"/>
+      <c r="C39" s="135"/>
       <c r="D39" s="26"/>
       <c r="E39" s="25" t="s">
         <v>3</v>
@@ -14493,6 +14502,43 @@
     </row>
   </sheetData>
   <mergeCells count="53">
+    <mergeCell ref="J15:K16"/>
+    <mergeCell ref="J22:K23"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="J13:K14"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="I13:I14"/>
@@ -14509,43 +14555,6 @@
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="J13:K14"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="J22:K23"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J11:J12"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -14564,13 +14573,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14586,13 +14595,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14608,13 +14617,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14630,13 +14639,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14652,13 +14661,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14674,13 +14683,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14696,13 +14705,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14718,13 +14727,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14740,13 +14749,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14762,13 +14771,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>13</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14784,13 +14793,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14806,13 +14815,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14828,13 +14837,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14850,13 +14859,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14872,13 +14881,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14894,13 +14903,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14916,13 +14925,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14938,13 +14947,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14960,13 +14969,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -14982,13 +14991,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>1098550</xdr:colOff>
+                    <xdr:colOff>1100138</xdr:colOff>
                     <xdr:row>15</xdr:row>
                     <xdr:rowOff>304800</xdr:rowOff>
                   </to>
@@ -15004,7 +15013,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15026,7 +15035,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15048,7 +15057,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15070,7 +15079,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15092,7 +15101,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15114,7 +15123,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15136,7 +15145,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15158,7 +15167,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15180,7 +15189,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15202,7 +15211,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>9</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15224,7 +15233,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15246,7 +15255,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15268,7 +15277,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15290,7 +15299,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15312,7 +15321,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>17</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15334,7 +15343,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15356,13 +15365,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15380,13 +15389,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15400,13 +15409,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>22</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>23</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15422,15 +15431,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>22</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15444,13 +15453,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15468,13 +15477,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15488,13 +15497,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -15510,15 +15519,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
-                    <xdr:colOff>88900</xdr:colOff>
+                    <xdr:colOff>90488</xdr:colOff>
                     <xdr:row>20</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -15532,7 +15541,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15554,7 +15563,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15576,7 +15585,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15598,7 +15607,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15620,7 +15629,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>393700</xdr:colOff>
+                    <xdr:colOff>395288</xdr:colOff>
                     <xdr:row>25</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
@@ -15642,7 +15651,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15664,7 +15673,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>20</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -15693,30 +15702,30 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.23046875" customWidth="1"/>
-    <col min="2" max="2" width="15.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="6" width="15.23046875" customWidth="1"/>
-    <col min="7" max="7" width="3.765625" customWidth="1"/>
-    <col min="8" max="8" width="8.23046875" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.21875" customWidth="1"/>
+    <col min="7" max="7" width="3.77734375" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
-      <c r="A1" s="168" t="s">
+    <row r="1" spans="1:9" ht="17.649999999999999">
+      <c r="A1" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="168"/>
+      <c r="B1" s="175"/>
       <c r="C1" s="105" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="149" t="str">
+      <c r="D1" s="121" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="E1" s="149"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="110" t="s">
         <v>193</v>
       </c>
@@ -15754,7 +15763,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="58" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A3" s="169" t="s">
+      <c r="A3" s="176" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="72" t="s">
@@ -15772,17 +15781,17 @@
       <c r="F3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="125">
+      <c r="G3" s="124">
         <v>4</v>
       </c>
-      <c r="H3" s="127">
+      <c r="H3" s="126">
         <f>IF(B4=TRUE,$B$2,IF(C4=TRUE,$C$2,IF(D4=TRUE,$D$2,IF(E4=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I3" s="153"/>
+      <c r="I3" s="167"/>
     </row>
-    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A4" s="170"/>
+    <row r="4" spans="1:9" s="58" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A4" s="177"/>
       <c r="B4" s="59" t="b">
         <v>0</v>
       </c>
@@ -15798,9 +15807,9 @@
       <c r="F4" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="G4" s="126"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="154"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="168"/>
     </row>
     <row r="5" spans="1:9" s="58" customFormat="1" ht="81" customHeight="1">
       <c r="A5" s="74" t="s">
@@ -15821,16 +15830,16 @@
       <c r="F5" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="125">
+      <c r="G5" s="124">
         <v>4</v>
       </c>
-      <c r="H5" s="127">
+      <c r="H5" s="126">
         <f t="shared" ref="H5" si="0">IF(B6=TRUE,$B$2,IF(C6=TRUE,$C$2,IF(D6=TRUE,$D$2,IF(E6=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I5" s="153"/>
+      <c r="I5" s="167"/>
     </row>
-    <row r="6" spans="1:9" s="58" customFormat="1" ht="23.15" customHeight="1">
+    <row r="6" spans="1:9" s="58" customFormat="1" ht="23.2" customHeight="1">
       <c r="A6" s="73"/>
       <c r="B6" s="59" t="b">
         <v>0</v>
@@ -15847,12 +15856,12 @@
       <c r="F6" s="66" t="b">
         <v>0</v>
       </c>
-      <c r="G6" s="126"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="154"/>
+      <c r="G6" s="125"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="168"/>
     </row>
-    <row r="7" spans="1:9" s="16" customFormat="1" ht="78">
-      <c r="A7" s="173" t="s">
+    <row r="7" spans="1:9" s="16" customFormat="1" ht="76.5">
+      <c r="A7" s="171" t="s">
         <v>63</v>
       </c>
       <c r="B7" s="77" t="s">
@@ -15870,17 +15879,17 @@
       <c r="F7" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="124">
         <v>4</v>
       </c>
-      <c r="H7" s="127">
+      <c r="H7" s="126">
         <f t="shared" ref="H7" si="1">IF(B8=TRUE,$B$2,IF(C8=TRUE,$C$2,IF(D8=TRUE,$D$2,IF(E8=TRUE,$E$2,0))))</f>
         <v>0</v>
       </c>
-      <c r="I7" s="153"/>
+      <c r="I7" s="167"/>
     </row>
-    <row r="8" spans="1:9" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A8" s="173"/>
+    <row r="8" spans="1:9" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A8" s="171"/>
       <c r="B8" s="75" t="b">
         <v>0</v>
       </c>
@@ -15894,9 +15903,9 @@
         <v>0</v>
       </c>
       <c r="F8" s="67"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="154"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="168"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1">
       <c r="A9" s="104" t="s">
@@ -15922,7 +15931,7 @@
       <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" s="16" customFormat="1" ht="58.5" customHeight="1">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="178" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -15940,17 +15949,17 @@
       <c r="F10" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="125">
+      <c r="G10" s="124">
         <v>8</v>
       </c>
-      <c r="H10" s="127">
+      <c r="H10" s="126">
         <f>IF(B11=TRUE,$B$9,IF(C11=TRUE,$C$9,IF(D11=TRUE,$D$9,IF(E11=TRUE,$E$9,0))))</f>
         <v>0</v>
       </c>
-      <c r="I10" s="153"/>
+      <c r="I10" s="167"/>
     </row>
-    <row r="11" spans="1:9" s="16" customFormat="1" ht="23.15" customHeight="1">
-      <c r="A11" s="172"/>
+    <row r="11" spans="1:9" s="16" customFormat="1" ht="23.2" customHeight="1">
+      <c r="A11" s="179"/>
       <c r="B11" s="60" t="b">
         <v>0</v>
       </c>
@@ -15964,19 +15973,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="60"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="128"/>
-      <c r="I11" s="154"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="168"/>
     </row>
-    <row r="12" spans="1:9" ht="18">
-      <c r="A12" s="174" t="s">
+    <row r="12" spans="1:9" ht="17.649999999999999">
+      <c r="A12" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="175"/>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
+      <c r="B12" s="173"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="173"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="35">
         <f>SUM(G3:G11)</f>
         <v>20</v>
@@ -15994,30 +16003,30 @@
       <c r="A14" s="29"/>
     </row>
     <row r="15" spans="1:9" ht="51.75" customHeight="1">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="142"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="139"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="143"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
     </row>
-    <row r="17" spans="1:9" ht="18">
+    <row r="17" spans="1:9" ht="17.649999999999999">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -16030,26 +16039,26 @@
       <c r="H17" s="78"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="166"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
+      <c r="A18" s="155"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="165"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="154"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
     </row>
-    <row r="20" spans="1:9" ht="18">
+    <row r="20" spans="1:9" ht="17.649999999999999">
       <c r="A20" s="33"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
@@ -16060,7 +16069,7 @@
       <c r="H20" s="78"/>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="35">
+    <row r="21" spans="1:9" ht="34.5">
       <c r="A21" s="24" t="s">
         <v>2</v>
       </c>
@@ -16085,7 +16094,7 @@
       <c r="H21" s="78"/>
       <c r="I21" s="36"/>
     </row>
-    <row r="22" spans="1:9" ht="18">
+    <row r="22" spans="1:9" ht="17.649999999999999">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -16116,7 +16125,7 @@
       <c r="H23" s="78"/>
       <c r="I23" s="36"/>
     </row>
-    <row r="24" spans="1:9" ht="18">
+    <row r="24" spans="1:9" ht="17.649999999999999">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -16127,12 +16136,12 @@
       <c r="H24" s="78"/>
       <c r="I24" s="36"/>
     </row>
-    <row r="25" spans="1:9" ht="18">
+    <row r="25" spans="1:9" ht="17.649999999999999">
       <c r="A25" s="1"/>
-      <c r="B25" s="138" t="s">
+      <c r="B25" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="138"/>
+      <c r="C25" s="135"/>
       <c r="D25" s="26"/>
       <c r="E25" s="25" t="s">
         <v>3</v>
@@ -16142,7 +16151,7 @@
       <c r="H25" s="78"/>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" ht="18">
+    <row r="26" spans="1:9" ht="17.649999999999999">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -16153,7 +16162,7 @@
       <c r="H26" s="78"/>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" ht="18">
+    <row r="27" spans="1:9" ht="17.649999999999999">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="25" t="s">
@@ -16170,6 +16179,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="G7:G8"/>
@@ -16180,19 +16202,6 @@
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="A18:H18"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.17" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -16214,15 +16223,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>584200</xdr:colOff>
+                    <xdr:colOff>585788</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>261938</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16238,13 +16247,13 @@
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>647700</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>50800</xdr:colOff>
+                    <xdr:colOff>52388</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16258,7 +16267,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16280,15 +16289,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16302,15 +16311,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>52388</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16324,15 +16333,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>584200</xdr:colOff>
+                    <xdr:colOff>585788</xdr:colOff>
                     <xdr:row>6</xdr:row>
-                    <xdr:rowOff>908050</xdr:rowOff>
+                    <xdr:rowOff>909638</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>952500</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>222250</xdr:rowOff>
+                    <xdr:rowOff>223838</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16352,7 +16361,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>869950</xdr:colOff>
+                    <xdr:colOff>871538</xdr:colOff>
                     <xdr:row>8</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16368,15 +16377,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>565150</xdr:colOff>
+                    <xdr:colOff>566738</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>6</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>279400</xdr:rowOff>
+                    <xdr:rowOff>280988</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16396,7 +16405,7 @@
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>869950</xdr:colOff>
+                    <xdr:colOff>871538</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>266700</xdr:rowOff>
                   </to>
@@ -16412,7 +16421,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16434,7 +16443,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16456,7 +16465,7 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>736600</xdr:colOff>
+                    <xdr:colOff>738188</xdr:colOff>
                     <xdr:row>5</xdr:row>
                     <xdr:rowOff>38100</xdr:rowOff>
                   </from>
@@ -16480,13 +16489,13 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>533400</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>1238250</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>260350</xdr:rowOff>
+                    <xdr:rowOff>261938</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16522,15 +16531,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>52388</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16544,15 +16553,15 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>7</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>8</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
+                    <xdr:rowOff>52388</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -16568,11 +16577,11 @@
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>552450</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>14288</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>869950</xdr:colOff>
+                    <xdr:colOff>871538</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -16588,13 +16597,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16610,13 +16619,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16632,13 +16641,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16654,13 +16663,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>203200</xdr:colOff>
+                    <xdr:colOff>204788</xdr:colOff>
                     <xdr:row>10</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:rowOff>33338</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>908050</xdr:colOff>
+                    <xdr:colOff>909638</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </to>
@@ -16683,32 +16692,32 @@
       <selection activeCell="H14" activeCellId="2" sqref="H8 H13 H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.07421875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.23046875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.07421875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.0546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.0546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.0546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.07421875" customWidth="1"/>
-    <col min="14" max="14" width="23.3046875" customWidth="1"/>
-    <col min="15" max="15" width="15.84375" customWidth="1"/>
-    <col min="16" max="16" width="14.3046875" customWidth="1"/>
-    <col min="17" max="17" width="12.53515625" customWidth="1"/>
+    <col min="8" max="8" width="13.0546875" customWidth="1"/>
+    <col min="14" max="14" width="23.27734375" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.27734375" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18">
+    <row r="1" spans="1:17" ht="17.649999999999999">
       <c r="A1" s="70" t="s">
         <v>90</v>
       </c>
       <c r="B1" s="87"/>
-      <c r="D1" s="149" t="str">
+      <c r="D1" s="121" t="str">
         <f>'Taak 1_5'!C1</f>
         <v>Marlu Potgieter</v>
       </c>
-      <c r="E1" s="149"/>
+      <c r="E1" s="121"/>
       <c r="F1" s="112" t="s">
         <v>193</v>
       </c>
@@ -16717,22 +16726,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.5" thickBot="1">
-      <c r="B2" s="179" t="s">
+    <row r="2" spans="1:17" ht="18" thickBot="1">
+      <c r="B2" s="187" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="187"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
       <c r="L2" s="1"/>
       <c r="M2" s="183"/>
       <c r="N2" s="183"/>
       <c r="O2" s="183"/>
       <c r="P2" s="183"/>
     </row>
-    <row r="3" spans="1:17" s="19" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1">
+    <row r="3" spans="1:17" s="19" customFormat="1" ht="20.2" customHeight="1" thickBot="1">
       <c r="A3" s="18"/>
       <c r="B3" s="91" t="s">
         <v>119</v>
@@ -16759,9 +16768,9 @@
       <c r="P3" s="48"/>
       <c r="Q3" s="49"/>
     </row>
-    <row r="4" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A4" s="18"/>
-      <c r="B4" s="180">
+      <c r="B4" s="188">
         <v>1</v>
       </c>
       <c r="C4" s="93" t="s">
@@ -16788,9 +16797,9 @@
       <c r="P4" s="52"/>
       <c r="Q4" s="53"/>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A5" s="18"/>
-      <c r="B5" s="181"/>
+      <c r="B5" s="189"/>
       <c r="C5" s="93" t="s">
         <v>144</v>
       </c>
@@ -16815,9 +16824,9 @@
       <c r="P5" s="52"/>
       <c r="Q5" s="53"/>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A6" s="18"/>
-      <c r="B6" s="181"/>
+      <c r="B6" s="189"/>
       <c r="C6" s="93" t="s">
         <v>145</v>
       </c>
@@ -16842,9 +16851,9 @@
       <c r="P6" s="52"/>
       <c r="Q6" s="53"/>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A7" s="18"/>
-      <c r="B7" s="181"/>
+      <c r="B7" s="189"/>
       <c r="C7" s="93" t="s">
         <v>146</v>
       </c>
@@ -16872,9 +16881,9 @@
       <c r="P7" s="52"/>
       <c r="Q7" s="53"/>
     </row>
-    <row r="8" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="8" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A8" s="18"/>
-      <c r="B8" s="182"/>
+      <c r="B8" s="190"/>
       <c r="C8" s="93" t="s">
         <v>147</v>
       </c>
@@ -16903,9 +16912,9 @@
       <c r="P8" s="52"/>
       <c r="Q8" s="53"/>
     </row>
-    <row r="9" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="9" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A9" s="18"/>
-      <c r="B9" s="180">
+      <c r="B9" s="188">
         <v>2</v>
       </c>
       <c r="C9" s="93" t="s">
@@ -16933,9 +16942,9 @@
       <c r="P9" s="52"/>
       <c r="Q9" s="54"/>
     </row>
-    <row r="10" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="10" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A10" s="18"/>
-      <c r="B10" s="181"/>
+      <c r="B10" s="189"/>
       <c r="C10" s="93" t="s">
         <v>149</v>
       </c>
@@ -16961,9 +16970,9 @@
       <c r="P10" s="52"/>
       <c r="Q10" s="54"/>
     </row>
-    <row r="11" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="11" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A11" s="18"/>
-      <c r="B11" s="181"/>
+      <c r="B11" s="189"/>
       <c r="C11" s="93" t="s">
         <v>150</v>
       </c>
@@ -16989,9 +16998,9 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="54"/>
     </row>
-    <row r="12" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="12" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A12" s="18"/>
-      <c r="B12" s="181"/>
+      <c r="B12" s="189"/>
       <c r="C12" s="93" t="s">
         <v>151</v>
       </c>
@@ -17017,9 +17026,9 @@
       <c r="P12" s="52"/>
       <c r="Q12" s="54"/>
     </row>
-    <row r="13" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="13" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A13" s="18"/>
-      <c r="B13" s="182"/>
+      <c r="B13" s="190"/>
       <c r="C13" s="93" t="s">
         <v>152</v>
       </c>
@@ -17048,7 +17057,7 @@
       <c r="P13" s="52"/>
       <c r="Q13" s="54"/>
     </row>
-    <row r="14" spans="1:17" s="19" customFormat="1" ht="23.15" customHeight="1" thickBot="1">
+    <row r="14" spans="1:17" s="19" customFormat="1" ht="23.2" customHeight="1" thickBot="1">
       <c r="A14" s="18"/>
       <c r="B14" s="94">
         <v>3</v>
@@ -17081,13 +17090,13 @@
       <c r="P14" s="52"/>
       <c r="Q14" s="54"/>
     </row>
-    <row r="15" spans="1:17" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
+    <row r="15" spans="1:17" s="19" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
       <c r="A15" s="18"/>
       <c r="B15" s="18"/>
-      <c r="C15" s="186" t="s">
+      <c r="C15" s="181" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="186"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="88">
         <f>SUM(E4:E14)</f>
         <v>100</v>
@@ -17107,14 +17116,14 @@
       <c r="P15" s="56"/>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:17" s="19" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
-      <c r="C16" s="187" t="s">
+      <c r="C16" s="182" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
       <c r="F16" s="23">
         <f>ROUND(F15/E15*100,0)</f>
         <v>72</v>
@@ -17130,14 +17139,14 @@
       <c r="P16" s="56"/>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:19" s="19" customFormat="1" ht="25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" s="19" customFormat="1" ht="25.05" customHeight="1" thickBot="1">
       <c r="A17" s="18"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="187" t="s">
+      <c r="C17" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
       <c r="F17" s="23">
         <f>ROUND(F16/100*25,0)</f>
         <v>18</v>
@@ -17153,49 +17162,49 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:19" ht="25" customHeight="1">
-      <c r="A18" s="142" t="s">
+    <row r="18" spans="1:19" ht="25.05" customHeight="1">
+      <c r="A18" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="142"/>
-      <c r="I18" s="142"/>
-      <c r="L18" s="142"/>
-      <c r="M18" s="142"/>
-      <c r="N18" s="142"/>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="142"/>
-      <c r="R18" s="142"/>
-      <c r="S18" s="142"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
     </row>
     <row r="19" spans="1:19" ht="66.75" customHeight="1">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="L19" s="140"/>
+      <c r="M19" s="140"/>
+      <c r="N19" s="140"/>
+      <c r="O19" s="140"/>
+      <c r="P19" s="140"/>
+      <c r="Q19" s="140"/>
+      <c r="R19" s="140"/>
+      <c r="S19" s="140"/>
     </row>
-    <row r="20" spans="1:19" ht="18">
+    <row r="20" spans="1:19" ht="17.649999999999999">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -17212,44 +17221,44 @@
       <c r="S20" s="3"/>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="166"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="177"/>
-      <c r="O21" s="177"/>
-      <c r="P21" s="177"/>
-      <c r="Q21" s="177"/>
-      <c r="R21" s="177"/>
-      <c r="S21" s="177"/>
+      <c r="A21" s="155"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="L21" s="186"/>
+      <c r="M21" s="186"/>
+      <c r="N21" s="186"/>
+      <c r="O21" s="186"/>
+      <c r="P21" s="186"/>
+      <c r="Q21" s="186"/>
+      <c r="R21" s="186"/>
+      <c r="S21" s="186"/>
     </row>
     <row r="22" spans="1:19" ht="24" customHeight="1">
-      <c r="A22" s="165"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="165"/>
-      <c r="D22" s="165"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="L22" s="177"/>
-      <c r="M22" s="177"/>
-      <c r="N22" s="177"/>
-      <c r="O22" s="177"/>
-      <c r="P22" s="177"/>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="177"/>
-      <c r="S22" s="177"/>
+      <c r="A22" s="154"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="154"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="154"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="154"/>
+      <c r="I22" s="154"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="186"/>
     </row>
-    <row r="23" spans="1:19" ht="18">
+    <row r="23" spans="1:19" ht="17.649999999999999">
       <c r="A23" s="33"/>
       <c r="B23" s="33"/>
       <c r="C23" s="32"/>
@@ -17269,12 +17278,12 @@
       <c r="R23" s="2"/>
       <c r="S23" s="3"/>
     </row>
-    <row r="24" spans="1:19" ht="35">
-      <c r="A24" s="178" t="s">
+    <row r="24" spans="1:19" ht="34.5">
+      <c r="A24" s="180" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="178"/>
-      <c r="C24" s="178"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
       <c r="D24" s="26" t="str">
         <f>'Taak 1_5'!B37</f>
         <v>Mnr J S Joubert</v>
@@ -17294,8 +17303,8 @@
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="36"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
       <c r="N24" s="1"/>
       <c r="O24" s="24"/>
       <c r="P24" s="1"/>
@@ -17355,10 +17364,10 @@
       <c r="S27" s="3"/>
     </row>
     <row r="28" spans="1:19">
-      <c r="D28" s="138" t="s">
+      <c r="D28" s="135" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="138"/>
+      <c r="E28" s="135"/>
       <c r="F28" s="26"/>
       <c r="G28" s="25" t="s">
         <v>3</v>
@@ -17368,8 +17377,8 @@
       <c r="J28" s="36"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="138"/>
-      <c r="O28" s="138"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="25"/>
       <c r="R28" s="33"/>
@@ -17418,6 +17427,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="L19:S19"/>
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="L22:S22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B8"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="L18:S18"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A21:I21"/>
@@ -17427,20 +17450,6 @@
     <mergeCell ref="A19:I19"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="A18:I18"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="L18:S18"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="L19:S19"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="L22:S22"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:B8"/>
-    <mergeCell ref="B9:B13"/>
   </mergeCells>
   <phoneticPr fontId="48" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17452,15 +17461,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A83A0F5AF8C424EA5FEF3AB33A15D54" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="75d936fb32e694c3cc22851bb792f91f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="77ca57f3-f8d2-4a58-a2e5-ff9d774d27c2" xmlns:ns3="0b7ffa40-addb-4162-b3fb-aa51d9308391" xmlns:ns4="728f39ad-81e7-4f54-8c90-bf71e0a0cae3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e522b639bfd76cfb65ff5d7d09457af4" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="77ca57f3-f8d2-4a58-a2e5-ff9d774d27c2"/>
@@ -17708,15 +17708,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE5AC49-611F-46BD-9F5D-ABA8609AAB3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50DA4852-2F31-4A60-BF9E-5E5738226F66}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17734,4 +17735,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAE5AC49-611F-46BD-9F5D-ABA8609AAB3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>